--- a/NformTester/NformTester/keywordscripts/TST1134_DataLoggingOnDevicePropertiesAndTrends.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1134_DataLoggingOnDevicePropertiesAndTrends.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="15600" windowHeight="9570"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="15480" windowHeight="9570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -3711,9 +3711,6 @@
     <t>.NET Framework</t>
   </si>
   <si>
-    <t>10.146.85.10</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -3748,9 +3745,6 @@
     <t>SingleManual</t>
   </si>
   <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -3829,6 +3823,14 @@
   <si>
     <t>Sashimi</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMPdevice_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4354,8 +4356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="C61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4427,7 +4429,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -4446,13 +4448,13 @@
         <v>798</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>0</v>
@@ -4462,13 +4464,13 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>823</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>824</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>825</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -4487,7 +4489,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -4518,7 +4520,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4543,7 +4545,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>607</v>
@@ -4553,22 +4555,22 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>828</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>818</v>
-      </c>
-      <c r="J6" s="5" t="s">
+      <c r="L6" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>829</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>851</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>831</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="2"/>
@@ -4584,7 +4586,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -4603,13 +4605,13 @@
         <v>795</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>19</v>
@@ -4640,7 +4642,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>19</v>
@@ -4667,7 +4669,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>607</v>
@@ -4679,7 +4681,7 @@
         <v>56</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>829</v>
+        <v>854</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -4698,7 +4700,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>607</v>
@@ -4727,7 +4729,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>548</v>
@@ -4756,7 +4758,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>605</v>
@@ -4785,7 +4787,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>605</v>
@@ -4814,7 +4816,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>605</v>
@@ -4843,7 +4845,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>605</v>
@@ -4872,7 +4874,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>605</v>
@@ -4901,7 +4903,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>605</v>
@@ -4913,7 +4915,7 @@
         <v>4</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="5"/>
@@ -4934,7 +4936,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>786</v>
@@ -4961,7 +4963,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>605</v>
@@ -4973,7 +4975,7 @@
         <v>4</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="5"/>
@@ -4992,7 +4994,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>786</v>
@@ -5015,7 +5017,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>605</v>
@@ -5040,7 +5042,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>548</v>
@@ -5065,7 +5067,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>607</v>
@@ -5090,7 +5092,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="5"/>
@@ -5109,7 +5111,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>19</v>
@@ -5134,7 +5136,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>19</v>
@@ -5149,7 +5151,7 @@
         <v>2</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>829</v>
+        <v>854</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -5163,7 +5165,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>19</v>
@@ -5188,7 +5190,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>19</v>
@@ -5213,7 +5215,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>605</v>
@@ -5225,10 +5227,10 @@
         <v>7</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J30" s="11">
         <v>2</v>
@@ -5244,7 +5246,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="5"/>
@@ -5263,7 +5265,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>786</v>
@@ -5286,7 +5288,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="5"/>
@@ -5305,7 +5307,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>605</v>
@@ -5317,7 +5319,7 @@
         <v>4</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="5"/>
@@ -5332,7 +5334,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>786</v>
@@ -5355,7 +5357,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>605</v>
@@ -5367,7 +5369,7 @@
         <v>4</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="5"/>
@@ -5382,7 +5384,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="5"/>
@@ -5401,7 +5403,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>605</v>
@@ -5426,7 +5428,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>786</v>
@@ -5449,7 +5451,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>19</v>
@@ -5474,7 +5476,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>19</v>
@@ -5499,7 +5501,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>607</v>
@@ -5511,7 +5513,7 @@
         <v>56</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>829</v>
+        <v>854</v>
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="5"/>
@@ -5526,7 +5528,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>607</v>
@@ -5551,7 +5553,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>548</v>
@@ -5576,7 +5578,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>605</v>
@@ -5588,10 +5590,10 @@
         <v>7</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="J45" s="5">
         <v>5</v>
@@ -5607,7 +5609,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>605</v>
@@ -5632,7 +5634,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>605</v>
@@ -5661,7 +5663,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>605</v>
@@ -5686,7 +5688,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>548</v>
@@ -5711,7 +5713,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>607</v>
@@ -5736,7 +5738,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="5"/>
@@ -5755,7 +5757,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>19</v>
@@ -5780,7 +5782,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>19</v>
@@ -5795,7 +5797,7 @@
         <v>2</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>829</v>
+        <v>854</v>
       </c>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
@@ -5809,7 +5811,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>19</v>
@@ -5834,7 +5836,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>19</v>
@@ -5859,7 +5861,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>605</v>
@@ -5888,7 +5890,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>605</v>
@@ -5917,7 +5919,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>605</v>
@@ -5942,7 +5944,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E59" s="11"/>
       <c r="F59" s="5"/>
@@ -5961,7 +5963,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>19</v>
@@ -5986,7 +5988,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>19</v>
@@ -6011,7 +6013,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>607</v>
@@ -6023,7 +6025,7 @@
         <v>56</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>829</v>
+        <v>854</v>
       </c>
       <c r="I62" s="11"/>
       <c r="J62" s="5"/>
@@ -6038,7 +6040,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>607</v>
@@ -6063,7 +6065,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>548</v>
@@ -6088,7 +6090,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E65" s="11"/>
       <c r="F65" s="5"/>
@@ -6107,7 +6109,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>786</v>
@@ -6130,7 +6132,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>605</v>
@@ -6155,7 +6157,7 @@
         <v>67</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>548</v>
@@ -6180,7 +6182,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>607</v>
@@ -6205,7 +6207,7 @@
         <v>69</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E70" s="11"/>
       <c r="F70" s="5"/>
@@ -6224,7 +6226,7 @@
         <v>70</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>19</v>
@@ -6249,7 +6251,7 @@
         <v>71</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>19</v>
@@ -6274,7 +6276,7 @@
         <v>72</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E73" s="11" t="s">
         <v>607</v>
@@ -6286,7 +6288,7 @@
         <v>56</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>829</v>
+        <v>854</v>
       </c>
       <c r="I73" s="11"/>
       <c r="J73" s="5"/>
@@ -6301,7 +6303,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>607</v>
@@ -6326,7 +6328,7 @@
         <v>74</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>615</v>
@@ -6351,7 +6353,7 @@
         <v>75</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>607</v>
@@ -29091,22 +29093,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST1134_DataLoggingOnDevicePropertiesAndTrends.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1134_DataLoggingOnDevicePropertiesAndTrends.xlsx
@@ -1237,7 +1237,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7661" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7662" uniqueCount="856">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3825,11 +3825,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
+    <t>Running Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_0_NAME$</t>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4356,13 +4360,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="44.75" customWidth="1"/>
     <col min="3" max="3" width="8.25" customWidth="1"/>
     <col min="4" max="4" width="10.125" customWidth="1"/>
     <col min="5" max="5" width="19.375" customWidth="1"/>
@@ -4539,7 +4544,7 @@
         <v>803</v>
       </c>
       <c r="B6" s="10">
-        <v>41066</v>
+        <v>41446</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
@@ -4558,10 +4563,10 @@
         <v>827</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>828</v>
@@ -4602,11 +4607,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>795</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>843</v>
-      </c>
+        <v>853</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
@@ -4633,10 +4636,10 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>806</v>
+        <v>795</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>843</v>
       </c>
       <c r="C9" s="5">
         <v>8</v>
@@ -4663,8 +4666,12 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>806</v>
+      </c>
       <c r="C10" s="5">
         <v>9</v>
       </c>
@@ -4681,7 +4688,7 @@
         <v>56</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -4692,10 +4699,8 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
@@ -4722,7 +4727,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="5">
@@ -4751,7 +4756,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="5">
@@ -4780,7 +4785,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="5">
@@ -4809,7 +4814,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="5">
@@ -4838,7 +4843,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="5">
@@ -4866,10 +4871,10 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="15" t="s">
-        <v>813</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="5">
         <v>16</v>
       </c>
@@ -4897,7 +4902,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
@@ -4926,11 +4931,9 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="3" t="s">
-        <v>815</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="15" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="C19" s="5">
         <v>18</v>
@@ -4956,9 +4959,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="B20" s="15"/>
+        <v>815</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>806</v>
+      </c>
       <c r="C20" s="5">
         <v>19</v>
       </c>
@@ -4987,7 +4992,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="5">
@@ -5013,6 +5018,10 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15">
+      <c r="A22" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="5">
         <v>21</v>
       </c>
@@ -5151,7 +5160,7 @@
         <v>2</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -5513,7 +5522,7 @@
         <v>56</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="5"/>
@@ -5797,7 +5806,7 @@
         <v>2</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
@@ -6025,7 +6034,7 @@
         <v>56</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="I62" s="11"/>
       <c r="J62" s="5"/>
@@ -6288,7 +6297,7 @@
         <v>56</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="I73" s="11"/>
       <c r="J73" s="5"/>

--- a/NformTester/NformTester/keywordscripts/TST1134_DataLoggingOnDevicePropertiesAndTrends.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1134_DataLoggingOnDevicePropertiesAndTrends.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="480" yWindow="105" windowWidth="15480" windowHeight="9570"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Scripts" sheetId="3" r:id="rId1"/>
     <sheet name="Form DataValDepend" sheetId="1" r:id="rId2"/>
     <sheet name="Action DataValDepend" sheetId="2" r:id="rId3"/>
     <sheet name="Notes" sheetId="4" r:id="rId4"/>
